--- a/biology/Zoologie/Dictyopharidae/Dictyopharidae.xlsx
+++ b/biology/Zoologie/Dictyopharidae/Dictyopharidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dictyopharidae sont une famille d'insectes de l'ordre des hémiptères et de la super-famille des Fulgoroidea.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Dictyopharidae sont largement répandues dans la plupart des régions du monde et en particulier dans les régions tropicales et subtropicales comme en Amérique du Sud, en Orient et en Asie du Sud et du Sud-Est[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Dictyopharidae sont largement répandues dans la plupart des régions du monde et en particulier dans les régions tropicales et subtropicales comme en Amérique du Sud, en Orient et en Asie du Sud et du Sud-Est,. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Dictyopharidae est une famille modérément grande de Fulgoromorpha dont les membres peuvent être reconnus par leur tête variablement allongée antérieurement[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Dictyopharidae est une famille modérément grande de Fulgoromorpha dont les membres peuvent être reconnus par leur tête variablement allongée antérieurement,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de cette famille se nourrissent principalement de monocotylédones. Quelques-uns sont des ravageurs agricoles majeurs des Poaceae (graminées), comme le riz, le maïs et la canne à sucre[4],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de cette famille se nourrissent principalement de monocotylédones. Quelques-uns sont des ravageurs agricoles majeurs des Poaceae (graminées), comme le riz, le maïs et la canne à sucre,.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initialement orthographiée Dyctiophoroïdes par Massimiliano Spinola en 1839[3], Carl Stål renomme cette "famille", Dictyopharida en 1866 en référence au genre Dictyophara Germar, 1833[5].
-Contenant plus de 720 espèces décrites dans 155 genres[6], cette famille est traditionnellement séparée en deux sous-familles, les Dictyopharinae et les Orgeriinae[2].
-Il a noter que, comme dans de nombreux autres groupes de Fulgoromorpha, un grand nombre de genres et de taxons supérieurs de cette famille n'ont toujours pas fait l'objet d'études de révision standard et leur monophilie n'a jamais été testée cladistiquement[7],[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement orthographiée Dyctiophoroïdes par Massimiliano Spinola en 1839, Carl Stål renomme cette "famille", Dictyopharida en 1866 en référence au genre Dictyophara Germar, 1833.
+Contenant plus de 720 espèces décrites dans 155 genres, cette famille est traditionnellement séparée en deux sous-familles, les Dictyopharinae et les Orgeriinae.
+Il a noter que, comme dans de nombreux autres groupes de Fulgoromorpha, un grand nombre de genres et de taxons supérieurs de cette famille n'ont toujours pas fait l'objet d'études de révision standard et leur monophilie n'a jamais été testée cladistiquement,. 
 </t>
         </is>
       </c>
@@ -637,10 +657,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La famille des Dictyopharidae contient plus de 745 espèces appartenant à plus de 160 genres[8]. 
-Liste (incomplète) des genres[8]:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Dictyopharidae contient plus de 745 espèces appartenant à plus de 160 genres. 
+Liste (incomplète) des genres:
 Sous-famille Dictyopharinae Spinola, 1839
 Tribu Aluntiini Emeljanov, 1979
 Genre Aluntia Stål, 1866  genre type
@@ -827,10 +849,80 @@
 Genres incertae sedis
 Genre † Florissantia Scudder, 1890
 Genre † Limfjordia Willman, 1977
-Famille similaire
-Il est largement admis que cette famille est un clade frère de la famille des Fulgoridae dans les hypothèses de phylogénie des Fulgoromorpha basées sur des caractères morphologiques ou des données de séquence d'ADN[2].
-Publication originale
-Spinola, M. 1839. Essai sur les Fulgorelles, sous-tribu de la tribu des Cicadaires, ordre des Rhyngotes. Annales de la Société Entomologique de France. Paris 8: 133-337 [202,283]. (BHL)</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dictyopharidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dictyopharidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Famille similaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est largement admis que cette famille est un clade frère de la famille des Fulgoridae dans les hypothèses de phylogénie des Fulgoromorpha basées sur des caractères morphologiques ou des données de séquence d'ADN.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dictyopharidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dictyopharidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Spinola, M. 1839. Essai sur les Fulgorelles, sous-tribu de la tribu des Cicadaires, ordre des Rhyngotes. Annales de la Société Entomologique de France. Paris 8: 133-337 [202,283]. (BHL)</t>
         </is>
       </c>
     </row>
